--- a/TspuWebPortal/Development/unsafe_uploads/DC2_Rack_3.xlsx
+++ b/TspuWebPortal/Development/unsafe_uploads/DC2_Rack_3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="808">
   <si>
     <t>№ п/п</t>
   </si>
@@ -468,9 +468,6 @@
   </si>
   <si>
     <t>27.50</t>
-  </si>
-  <si>
-    <t>Кабель оптический 40G QSFP+</t>
   </si>
   <si>
     <t>FT-QSFP+-CabA-15</t>
@@ -1669,9 +1666,6 @@
     <t>34.5</t>
   </si>
   <si>
-    <t>Кабель FT-QSFP+-LR4-PSM</t>
-  </si>
-  <si>
     <t>1/0/7</t>
   </si>
   <si>
@@ -2380,15 +2374,9 @@
     <t>юнит 40 (r)</t>
   </si>
   <si>
-    <t>102713</t>
-  </si>
-  <si>
     <t>АПКШ Континент (КК1)</t>
   </si>
   <si>
-    <t>102274</t>
-  </si>
-  <si>
     <t>Модуль оптический FT-SFP-SX-1,25-850-0,5-D (1,25G, 550m, Tx850nm, MM, LC, DDM)</t>
   </si>
   <si>
@@ -2402,9 +2390,6 @@
   </si>
   <si>
     <t>АПКШ Континент (ЦУС)</t>
-  </si>
-  <si>
-    <t>Серийный +D190+A+A:Q</t>
   </si>
   <si>
     <t>Usergate D200</t>
@@ -2422,6 +2407,51 @@
   </si>
   <si>
     <t>N9K-X97160YC-EX</t>
+  </si>
+  <si>
+    <t>Серийный номер</t>
+  </si>
+  <si>
+    <t>IPC3000F. КС3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N9K-SUP-A+ </t>
+  </si>
+  <si>
+    <t>N9K-PAC-3000W-B</t>
+  </si>
+  <si>
+    <t>UserGate F8000</t>
+  </si>
+  <si>
+    <t>UG-NCS2</t>
+  </si>
+  <si>
+    <t>UG-TLRQ</t>
+  </si>
+  <si>
+    <t>Сетевой идентификатор: 102713</t>
+  </si>
+  <si>
+    <t>PM160-220/12</t>
+  </si>
+  <si>
+    <t>неизвестно</t>
+  </si>
+  <si>
+    <t>Кабель оптический 40G QSFP+, 15м</t>
+  </si>
+  <si>
+    <t>Кабель оптический 10G SFP+, 2м</t>
+  </si>
+  <si>
+    <t>Кабель оптический 10G SFP+, 5м</t>
+  </si>
+  <si>
+    <t>FT-QSFP+-LR4-PSM</t>
+  </si>
+  <si>
+    <t>Трансивер Fibertrade FT-QSFP+-LR4-PSM</t>
   </si>
 </sst>
 </file>
@@ -2513,7 +2543,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2528,6 +2558,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2812,16 +2846,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O259"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="65.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="37.28515625" style="1" customWidth="1"/>
@@ -2837,7 +2871,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2846,10 +2880,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -2883,7 +2917,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2903,10 +2937,10 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>611</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>613</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
@@ -2924,12 +2958,12 @@
         <v>17</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>627</v>
+        <v>629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>625</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>39</v>
@@ -2938,19 +2972,21 @@
         <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I3" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J3" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>11</v>
@@ -2965,11 +3001,11 @@
         <v>17</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2978,14 +3014,18 @@
       <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>792</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I4" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J4" s="2">
         <v>1</v>
       </c>
@@ -3002,11 +3042,11 @@
         <v>17</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3015,14 +3055,18 @@
       <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>792</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I5" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J5" s="2">
         <v>1</v>
       </c>
@@ -3039,11 +3083,11 @@
         <v>17</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3052,14 +3096,18 @@
       <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>792</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I6" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J6" s="2">
         <v>1</v>
       </c>
@@ -3076,12 +3124,12 @@
         <v>17</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>626</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>49</v>
@@ -3089,18 +3137,22 @@
       <c r="C7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="7" t="s">
+        <v>795</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I7" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J7" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>11</v>
@@ -3115,11 +3167,11 @@
         <v>17</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3128,14 +3180,18 @@
       <c r="C8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="7" t="s">
+        <v>795</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I8" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J8" s="2">
         <v>1</v>
       </c>
@@ -3152,11 +3208,11 @@
         <v>17</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3165,14 +3221,18 @@
       <c r="C9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="7" t="s">
+        <v>796</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I9" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J9" s="2">
         <v>1</v>
       </c>
@@ -3189,12 +3249,12 @@
         <v>17</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>634</v>
+      <c r="A10" s="6" t="s">
+        <v>632</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>57</v>
@@ -3202,18 +3262,22 @@
       <c r="C10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="7" t="s">
+        <v>796</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I10" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J10" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>11</v>
@@ -3228,12 +3292,12 @@
         <v>17</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>635</v>
+      <c r="A11" s="6" t="s">
+        <v>633</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>59</v>
@@ -3241,18 +3305,22 @@
       <c r="C11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="7" t="s">
+        <v>796</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I11" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J11" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>11</v>
@@ -3267,12 +3335,12 @@
         <v>17</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>636</v>
+      <c r="A12" s="6" t="s">
+        <v>634</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>61</v>
@@ -3280,18 +3348,22 @@
       <c r="C12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="7" t="s">
+        <v>796</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I12" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J12" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>11</v>
@@ -3306,11 +3378,11 @@
         <v>17</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -3326,10 +3398,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -3347,11 +3419,11 @@
         <v>17</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -3367,10 +3439,10 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
@@ -3388,11 +3460,11 @@
         <v>17</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3408,10 +3480,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
@@ -3429,7 +3501,7 @@
         <v>17</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -3449,10 +3521,10 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="J16" s="2">
         <v>1</v>
@@ -3470,7 +3542,7 @@
         <v>17</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -3490,10 +3562,10 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="J17" s="2">
         <v>1</v>
@@ -3511,7 +3583,7 @@
         <v>17</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -3531,10 +3603,10 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
@@ -3552,7 +3624,7 @@
         <v>17</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -3572,10 +3644,10 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
@@ -3593,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -3613,10 +3685,10 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
@@ -3634,7 +3706,7 @@
         <v>17</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -3654,10 +3726,10 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
@@ -3675,7 +3747,7 @@
         <v>17</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -3695,10 +3767,10 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
@@ -3716,7 +3788,7 @@
         <v>17</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -3736,10 +3808,10 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
@@ -3757,7 +3829,7 @@
         <v>17</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -3777,10 +3849,10 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
@@ -3798,7 +3870,7 @@
         <v>17</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -3818,10 +3890,10 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
@@ -3839,7 +3911,7 @@
         <v>17</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -3859,10 +3931,10 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
@@ -3880,7 +3952,7 @@
         <v>17</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -3900,10 +3972,10 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="J27" s="2">
         <v>1</v>
@@ -3921,7 +3993,7 @@
         <v>17</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -3941,10 +4013,10 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
@@ -3962,7 +4034,7 @@
         <v>17</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -3982,10 +4054,10 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
@@ -4003,7 +4075,7 @@
         <v>17</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -4023,10 +4095,10 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
@@ -4044,7 +4116,7 @@
         <v>17</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -4064,10 +4136,10 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
@@ -4085,7 +4157,7 @@
         <v>17</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -4105,10 +4177,10 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
@@ -4126,7 +4198,7 @@
         <v>17</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -4146,10 +4218,10 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="J33" s="2">
         <v>1</v>
@@ -4167,7 +4239,7 @@
         <v>17</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -4187,10 +4259,10 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="J34" s="2">
         <v>1</v>
@@ -4208,7 +4280,7 @@
         <v>17</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -4228,10 +4300,10 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="J35" s="2">
         <v>1</v>
@@ -4249,7 +4321,7 @@
         <v>17</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -4269,10 +4341,10 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
@@ -4290,7 +4362,7 @@
         <v>17</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -4310,10 +4382,10 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
@@ -4331,7 +4403,7 @@
         <v>17</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -4351,10 +4423,10 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="J38" s="2">
         <v>1</v>
@@ -4372,7 +4444,7 @@
         <v>17</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -4392,10 +4464,10 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="J39" s="2">
         <v>1</v>
@@ -4413,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -4433,10 +4505,10 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="J40" s="2">
         <v>1</v>
@@ -4454,7 +4526,7 @@
         <v>17</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -4474,10 +4546,10 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="J41" s="2">
         <v>1</v>
@@ -4495,7 +4567,7 @@
         <v>17</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -4515,10 +4587,10 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="J42" s="2">
         <v>1</v>
@@ -4536,7 +4608,7 @@
         <v>17</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -4556,10 +4628,10 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J43" s="2">
         <v>1</v>
@@ -4577,7 +4649,7 @@
         <v>17</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -4597,10 +4669,10 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="J44" s="2">
         <v>1</v>
@@ -4618,7 +4690,7 @@
         <v>17</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -4638,10 +4710,10 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="J45" s="2">
         <v>1</v>
@@ -4659,7 +4731,7 @@
         <v>17</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -4679,10 +4751,10 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="J46" s="2">
         <v>1</v>
@@ -4700,7 +4772,7 @@
         <v>17</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -4720,10 +4792,10 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="J47" s="2">
         <v>1</v>
@@ -4741,7 +4813,7 @@
         <v>17</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -4761,10 +4833,10 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>18</v>
@@ -4782,7 +4854,7 @@
         <v>17</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -4802,10 +4874,10 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
@@ -4823,7 +4895,7 @@
         <v>17</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -4843,10 +4915,10 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="J50" s="2">
         <v>1</v>
@@ -4864,7 +4936,7 @@
         <v>17</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -4884,10 +4956,10 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="J51" s="2">
         <v>1</v>
@@ -4905,7 +4977,7 @@
         <v>17</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -4925,10 +4997,10 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="J52" s="2">
         <v>1</v>
@@ -4946,7 +5018,7 @@
         <v>17</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -4954,7 +5026,7 @@
         <v>136</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>10</v>
@@ -4966,10 +5038,10 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="J53" s="2">
         <v>1</v>
@@ -4987,7 +5059,7 @@
         <v>17</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -4995,7 +5067,7 @@
         <v>138</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>10</v>
@@ -5007,10 +5079,10 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="J54" s="2">
         <v>1</v>
@@ -5028,7 +5100,7 @@
         <v>17</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -5036,7 +5108,7 @@
         <v>140</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>10</v>
@@ -5048,10 +5120,10 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="J55" s="2">
         <v>1</v>
@@ -5069,7 +5141,7 @@
         <v>17</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -5077,7 +5149,7 @@
         <v>142</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>144</v>
@@ -5089,10 +5161,10 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>18</v>
@@ -5110,7 +5182,7 @@
         <v>17</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -5118,22 +5190,22 @@
         <v>146</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="J57" s="2">
         <v>1</v>
@@ -5151,15 +5223,15 @@
         <v>17</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>10</v>
@@ -5171,10 +5243,10 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="J58" s="2">
         <v>1</v>
@@ -5192,15 +5264,15 @@
         <v>17</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>10</v>
@@ -5212,10 +5284,10 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="J59" s="2">
         <v>1</v>
@@ -5233,15 +5305,15 @@
         <v>17</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>10</v>
@@ -5253,10 +5325,10 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J60" s="2">
         <v>1</v>
@@ -5274,15 +5346,15 @@
         <v>17</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>10</v>
@@ -5294,10 +5366,10 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
@@ -5315,15 +5387,15 @@
         <v>17</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>10</v>
@@ -5335,10 +5407,10 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J62" s="2">
         <v>1</v>
@@ -5356,15 +5428,15 @@
         <v>17</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>10</v>
@@ -5376,10 +5448,10 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J63" s="2">
         <v>1</v>
@@ -5397,15 +5469,15 @@
         <v>17</v>
       </c>
       <c r="O63" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>10</v>
@@ -5417,10 +5489,10 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="J64" s="2">
         <v>1</v>
@@ -5438,15 +5510,15 @@
         <v>17</v>
       </c>
       <c r="O64" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>10</v>
@@ -5458,10 +5530,10 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="J65" s="2">
         <v>1</v>
@@ -5479,15 +5551,15 @@
         <v>17</v>
       </c>
       <c r="O65" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>10</v>
@@ -5499,10 +5571,10 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="J66" s="2">
         <v>1</v>
@@ -5520,15 +5592,15 @@
         <v>17</v>
       </c>
       <c r="O66" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>10</v>
@@ -5540,10 +5612,10 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="J67" s="2">
         <v>1</v>
@@ -5561,15 +5633,15 @@
         <v>17</v>
       </c>
       <c r="O67" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>10</v>
@@ -5581,10 +5653,10 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="J68" s="2">
         <v>1</v>
@@ -5602,15 +5674,15 @@
         <v>17</v>
       </c>
       <c r="O68" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>10</v>
@@ -5622,10 +5694,10 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="J69" s="2">
         <v>1</v>
@@ -5643,15 +5715,15 @@
         <v>17</v>
       </c>
       <c r="O69" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>10</v>
@@ -5663,10 +5735,10 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="J70" s="2">
         <v>1</v>
@@ -5684,15 +5756,15 @@
         <v>17</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>10</v>
@@ -5704,10 +5776,10 @@
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="J71" s="2">
         <v>1</v>
@@ -5725,15 +5797,15 @@
         <v>17</v>
       </c>
       <c r="O71" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>10</v>
@@ -5745,10 +5817,10 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J72" s="2">
         <v>1</v>
@@ -5766,15 +5838,15 @@
         <v>17</v>
       </c>
       <c r="O72" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>10</v>
@@ -5786,10 +5858,10 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J73" s="2">
         <v>1</v>
@@ -5807,15 +5879,15 @@
         <v>17</v>
       </c>
       <c r="O73" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>10</v>
@@ -5827,10 +5899,10 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="J74" s="2">
         <v>1</v>
@@ -5848,15 +5920,15 @@
         <v>17</v>
       </c>
       <c r="O74" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>10</v>
@@ -5868,10 +5940,10 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="J75" s="2">
         <v>1</v>
@@ -5889,15 +5961,15 @@
         <v>17</v>
       </c>
       <c r="O75" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>10</v>
@@ -5909,10 +5981,10 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="J76" s="2">
         <v>1</v>
@@ -5930,15 +6002,15 @@
         <v>17</v>
       </c>
       <c r="O76" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>10</v>
@@ -5950,10 +6022,10 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="J77" s="2">
         <v>1</v>
@@ -5971,15 +6043,15 @@
         <v>17</v>
       </c>
       <c r="O77" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>10</v>
@@ -5991,10 +6063,10 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="J78" s="2">
         <v>1</v>
@@ -6012,15 +6084,15 @@
         <v>17</v>
       </c>
       <c r="O78" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>10</v>
@@ -6032,10 +6104,10 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="J79" s="2">
         <v>1</v>
@@ -6053,15 +6125,15 @@
         <v>17</v>
       </c>
       <c r="O79" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>10</v>
@@ -6073,10 +6145,10 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J80" s="2">
         <v>1</v>
@@ -6094,15 +6166,15 @@
         <v>17</v>
       </c>
       <c r="O80" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>10</v>
@@ -6114,10 +6186,10 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="J81" s="2">
         <v>1</v>
@@ -6135,15 +6207,15 @@
         <v>17</v>
       </c>
       <c r="O81" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>10</v>
@@ -6155,10 +6227,10 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J82" s="2">
         <v>1</v>
@@ -6176,15 +6248,15 @@
         <v>17</v>
       </c>
       <c r="O82" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>10</v>
@@ -6196,10 +6268,10 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J83" s="2">
         <v>1</v>
@@ -6217,15 +6289,15 @@
         <v>17</v>
       </c>
       <c r="O83" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>10</v>
@@ -6237,10 +6309,10 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="J84" s="2">
         <v>1</v>
@@ -6258,15 +6330,15 @@
         <v>17</v>
       </c>
       <c r="O84" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>132</v>
@@ -6278,10 +6350,10 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J85" s="2">
         <v>1</v>
@@ -6299,15 +6371,15 @@
         <v>17</v>
       </c>
       <c r="O85" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>132</v>
@@ -6319,10 +6391,10 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="J86" s="2">
         <v>1</v>
@@ -6340,15 +6412,15 @@
         <v>17</v>
       </c>
       <c r="O86" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>132</v>
@@ -6360,10 +6432,10 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="J87" s="2">
         <v>1</v>
@@ -6381,15 +6453,15 @@
         <v>17</v>
       </c>
       <c r="O87" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>132</v>
@@ -6401,10 +6473,10 @@
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="J88" s="2">
         <v>1</v>
@@ -6422,15 +6494,15 @@
         <v>17</v>
       </c>
       <c r="O88" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>10</v>
@@ -6442,10 +6514,10 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="J89" s="2">
         <v>1</v>
@@ -6463,15 +6535,15 @@
         <v>17</v>
       </c>
       <c r="O89" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>10</v>
@@ -6483,10 +6555,10 @@
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="J90" s="2">
         <v>1</v>
@@ -6504,15 +6576,15 @@
         <v>17</v>
       </c>
       <c r="O90" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>10</v>
@@ -6524,10 +6596,10 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="J91" s="2">
         <v>1</v>
@@ -6545,18 +6617,18 @@
         <v>17</v>
       </c>
       <c r="O91" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>133</v>
@@ -6565,10 +6637,10 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="J92" s="2">
         <v>1</v>
@@ -6586,15 +6658,15 @@
         <v>17</v>
       </c>
       <c r="O92" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>10</v>
@@ -6606,10 +6678,10 @@
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="J93" s="2">
         <v>1</v>
@@ -6627,15 +6699,15 @@
         <v>17</v>
       </c>
       <c r="O93" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>10</v>
@@ -6647,10 +6719,10 @@
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="J94" s="2">
         <v>1</v>
@@ -6668,15 +6740,15 @@
         <v>17</v>
       </c>
       <c r="O94" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>10</v>
@@ -6688,10 +6760,10 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="J95" s="2">
         <v>1</v>
@@ -6709,15 +6781,15 @@
         <v>17</v>
       </c>
       <c r="O95" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>10</v>
@@ -6729,10 +6801,10 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="J96" s="2">
         <v>1</v>
@@ -6750,15 +6822,15 @@
         <v>17</v>
       </c>
       <c r="O96" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>10</v>
@@ -6770,10 +6842,10 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="J97" s="2">
         <v>1</v>
@@ -6791,15 +6863,15 @@
         <v>17</v>
       </c>
       <c r="O97" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>144</v>
@@ -6811,10 +6883,10 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>18</v>
@@ -6832,30 +6904,30 @@
         <v>17</v>
       </c>
       <c r="O98" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="J99" s="2">
         <v>1</v>
@@ -6873,30 +6945,30 @@
         <v>17</v>
       </c>
       <c r="O99" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C100" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="J100" s="2">
         <v>1</v>
@@ -6914,15 +6986,15 @@
         <v>17</v>
       </c>
       <c r="O100" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>10</v>
@@ -6934,10 +7006,10 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>18</v>
@@ -6955,15 +7027,15 @@
         <v>17</v>
       </c>
       <c r="O101" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>10</v>
@@ -6975,10 +7047,10 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>18</v>
@@ -6996,15 +7068,15 @@
         <v>17</v>
       </c>
       <c r="O102" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>10</v>
@@ -7016,10 +7088,10 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>18</v>
@@ -7037,15 +7109,15 @@
         <v>17</v>
       </c>
       <c r="O103" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>10</v>
@@ -7057,10 +7129,10 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>18</v>
@@ -7078,15 +7150,15 @@
         <v>17</v>
       </c>
       <c r="O104" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>10</v>
@@ -7098,10 +7170,10 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>18</v>
@@ -7119,15 +7191,15 @@
         <v>17</v>
       </c>
       <c r="O105" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>10</v>
@@ -7139,10 +7211,10 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>18</v>
@@ -7160,15 +7232,15 @@
         <v>17</v>
       </c>
       <c r="O106" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>10</v>
@@ -7180,10 +7252,10 @@
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>18</v>
@@ -7201,15 +7273,15 @@
         <v>17</v>
       </c>
       <c r="O107" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>10</v>
@@ -7221,10 +7293,10 @@
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>18</v>
@@ -7242,15 +7314,15 @@
         <v>17</v>
       </c>
       <c r="O108" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>10</v>
@@ -7262,10 +7334,10 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>18</v>
@@ -7283,15 +7355,15 @@
         <v>17</v>
       </c>
       <c r="O109" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>10</v>
@@ -7303,10 +7375,10 @@
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>18</v>
@@ -7324,15 +7396,15 @@
         <v>17</v>
       </c>
       <c r="O110" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>10</v>
@@ -7344,10 +7416,10 @@
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>18</v>
@@ -7365,15 +7437,15 @@
         <v>17</v>
       </c>
       <c r="O111" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>10</v>
@@ -7385,10 +7457,10 @@
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>18</v>
@@ -7406,15 +7478,15 @@
         <v>17</v>
       </c>
       <c r="O112" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>10</v>
@@ -7426,10 +7498,10 @@
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>18</v>
@@ -7447,15 +7519,15 @@
         <v>17</v>
       </c>
       <c r="O113" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>10</v>
@@ -7467,10 +7539,10 @@
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>18</v>
@@ -7488,15 +7560,15 @@
         <v>17</v>
       </c>
       <c r="O114" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>10</v>
@@ -7508,10 +7580,10 @@
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>18</v>
@@ -7529,15 +7601,15 @@
         <v>17</v>
       </c>
       <c r="O115" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>10</v>
@@ -7549,10 +7621,10 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>18</v>
@@ -7570,15 +7642,15 @@
         <v>17</v>
       </c>
       <c r="O116" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>10</v>
@@ -7590,10 +7662,10 @@
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>18</v>
@@ -7611,15 +7683,15 @@
         <v>17</v>
       </c>
       <c r="O117" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>10</v>
@@ -7631,10 +7703,10 @@
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>18</v>
@@ -7652,15 +7724,15 @@
         <v>17</v>
       </c>
       <c r="O118" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>10</v>
@@ -7672,10 +7744,10 @@
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>18</v>
@@ -7693,15 +7765,15 @@
         <v>17</v>
       </c>
       <c r="O119" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>10</v>
@@ -7713,10 +7785,10 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>18</v>
@@ -7734,18 +7806,18 @@
         <v>17</v>
       </c>
       <c r="O120" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>20</v>
+        <v>804</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>28</v>
@@ -7754,10 +7826,10 @@
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>18</v>
@@ -7775,15 +7847,15 @@
         <v>17</v>
       </c>
       <c r="O121" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>10</v>
@@ -7795,10 +7867,10 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>18</v>
@@ -7816,18 +7888,18 @@
         <v>17</v>
       </c>
       <c r="O122" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>20</v>
+        <v>805</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>25</v>
@@ -7836,10 +7908,10 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>18</v>
@@ -7857,18 +7929,18 @@
         <v>17</v>
       </c>
       <c r="O123" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>27</v>
@@ -7877,10 +7949,10 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>18</v>
@@ -7898,18 +7970,18 @@
         <v>17</v>
       </c>
       <c r="O124" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>27</v>
@@ -7918,10 +7990,10 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>18</v>
@@ -7939,18 +8011,18 @@
         <v>17</v>
       </c>
       <c r="O125" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>127</v>
@@ -7959,10 +8031,10 @@
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>18</v>
@@ -7980,15 +8052,15 @@
         <v>17</v>
       </c>
       <c r="O126" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>10</v>
@@ -8000,10 +8072,10 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>18</v>
@@ -8021,15 +8093,15 @@
         <v>17</v>
       </c>
       <c r="O127" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>132</v>
@@ -8041,10 +8113,10 @@
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>18</v>
@@ -8062,15 +8134,15 @@
         <v>17</v>
       </c>
       <c r="O128" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>10</v>
@@ -8082,10 +8154,10 @@
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>18</v>
@@ -8103,18 +8175,18 @@
         <v>17</v>
       </c>
       <c r="O129" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>127</v>
@@ -8123,10 +8195,10 @@
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>18</v>
@@ -8144,15 +8216,15 @@
         <v>17</v>
       </c>
       <c r="O130" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>10</v>
@@ -8164,10 +8236,10 @@
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>18</v>
@@ -8185,15 +8257,15 @@
         <v>17</v>
       </c>
       <c r="O131" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>144</v>
@@ -8205,10 +8277,10 @@
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>18</v>
@@ -8226,15 +8298,15 @@
         <v>17</v>
       </c>
       <c r="O132" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>10</v>
@@ -8246,10 +8318,10 @@
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>18</v>
@@ -8267,15 +8339,15 @@
         <v>17</v>
       </c>
       <c r="O133" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>10</v>
@@ -8287,10 +8359,10 @@
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>18</v>
@@ -8308,15 +8380,15 @@
         <v>17</v>
       </c>
       <c r="O134" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>10</v>
@@ -8328,10 +8400,10 @@
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>18</v>
@@ -8349,15 +8421,15 @@
         <v>17</v>
       </c>
       <c r="O135" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>10</v>
@@ -8369,10 +8441,10 @@
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>18</v>
@@ -8390,15 +8462,15 @@
         <v>17</v>
       </c>
       <c r="O136" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>10</v>
@@ -8410,10 +8482,10 @@
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>18</v>
@@ -8431,15 +8503,15 @@
         <v>17</v>
       </c>
       <c r="O137" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>10</v>
@@ -8451,10 +8523,10 @@
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>18</v>
@@ -8472,15 +8544,15 @@
         <v>17</v>
       </c>
       <c r="O138" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>10</v>
@@ -8492,10 +8564,10 @@
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
       <c r="H139" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>18</v>
@@ -8513,15 +8585,15 @@
         <v>17</v>
       </c>
       <c r="O139" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>10</v>
@@ -8533,10 +8605,10 @@
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>18</v>
@@ -8554,15 +8626,15 @@
         <v>17</v>
       </c>
       <c r="O140" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>10</v>
@@ -8574,10 +8646,10 @@
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>18</v>
@@ -8595,15 +8667,15 @@
         <v>17</v>
       </c>
       <c r="O141" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>10</v>
@@ -8615,10 +8687,10 @@
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>18</v>
@@ -8636,15 +8708,15 @@
         <v>17</v>
       </c>
       <c r="O142" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>10</v>
@@ -8656,10 +8728,10 @@
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>18</v>
@@ -8677,15 +8749,15 @@
         <v>17</v>
       </c>
       <c r="O143" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>10</v>
@@ -8697,10 +8769,10 @@
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>18</v>
@@ -8718,15 +8790,15 @@
         <v>17</v>
       </c>
       <c r="O144" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>10</v>
@@ -8738,10 +8810,10 @@
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
       <c r="H145" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>18</v>
@@ -8759,15 +8831,15 @@
         <v>17</v>
       </c>
       <c r="O145" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>10</v>
@@ -8779,10 +8851,10 @@
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
       <c r="H146" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>18</v>
@@ -8800,15 +8872,15 @@
         <v>17</v>
       </c>
       <c r="O146" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>10</v>
@@ -8820,10 +8892,10 @@
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>18</v>
@@ -8841,15 +8913,15 @@
         <v>17</v>
       </c>
       <c r="O147" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>10</v>
@@ -8861,10 +8933,10 @@
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
       <c r="H148" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J148" s="2" t="s">
         <v>18</v>
@@ -8882,15 +8954,15 @@
         <v>17</v>
       </c>
       <c r="O148" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>10</v>
@@ -8902,10 +8974,10 @@
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
       <c r="H149" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="J149" s="2" t="s">
         <v>18</v>
@@ -8923,15 +8995,15 @@
         <v>17</v>
       </c>
       <c r="O149" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>10</v>
@@ -8943,10 +9015,10 @@
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
       <c r="H150" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>18</v>
@@ -8964,15 +9036,15 @@
         <v>17</v>
       </c>
       <c r="O150" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>10</v>
@@ -8984,10 +9056,10 @@
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
       <c r="H151" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>18</v>
@@ -9005,15 +9077,15 @@
         <v>17</v>
       </c>
       <c r="O151" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>10</v>
@@ -9025,10 +9097,10 @@
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
       <c r="H152" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>18</v>
@@ -9046,15 +9118,15 @@
         <v>17</v>
       </c>
       <c r="O152" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>10</v>
@@ -9066,10 +9138,10 @@
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
       <c r="H153" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J153" s="2" t="s">
         <v>18</v>
@@ -9087,15 +9159,15 @@
         <v>17</v>
       </c>
       <c r="O153" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>10</v>
@@ -9107,10 +9179,10 @@
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
       <c r="H154" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>18</v>
@@ -9128,15 +9200,15 @@
         <v>17</v>
       </c>
       <c r="O154" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>10</v>
@@ -9148,10 +9220,10 @@
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
       <c r="H155" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="J155" s="2" t="s">
         <v>18</v>
@@ -9169,15 +9241,15 @@
         <v>17</v>
       </c>
       <c r="O155" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>10</v>
@@ -9189,10 +9261,10 @@
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
       <c r="H156" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="J156" s="2" t="s">
         <v>18</v>
@@ -9210,15 +9282,15 @@
         <v>17</v>
       </c>
       <c r="O156" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>10</v>
@@ -9230,10 +9302,10 @@
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
       <c r="H157" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="J157" s="2" t="s">
         <v>18</v>
@@ -9251,15 +9323,15 @@
         <v>17</v>
       </c>
       <c r="O157" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>10</v>
@@ -9271,10 +9343,10 @@
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
       <c r="H158" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="J158" s="2" t="s">
         <v>18</v>
@@ -9292,18 +9364,18 @@
         <v>17</v>
       </c>
       <c r="O158" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>27</v>
@@ -9312,10 +9384,10 @@
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
       <c r="H159" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="J159" s="2" t="s">
         <v>18</v>
@@ -9333,15 +9405,15 @@
         <v>17</v>
       </c>
       <c r="O159" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="160" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>132</v>
@@ -9353,10 +9425,10 @@
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
       <c r="H160" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J160" s="2" t="s">
         <v>18</v>
@@ -9374,15 +9446,15 @@
         <v>17</v>
       </c>
       <c r="O160" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>10</v>
@@ -9394,10 +9466,10 @@
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
       <c r="H161" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J161" s="2" t="s">
         <v>18</v>
@@ -9415,18 +9487,18 @@
         <v>17</v>
       </c>
       <c r="O161" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>127</v>
@@ -9435,10 +9507,10 @@
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
       <c r="H162" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J162" s="2" t="s">
         <v>18</v>
@@ -9456,15 +9528,15 @@
         <v>17</v>
       </c>
       <c r="O162" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>10</v>
@@ -9476,10 +9548,10 @@
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
       <c r="H163" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="J163" s="2" t="s">
         <v>18</v>
@@ -9497,18 +9569,18 @@
         <v>17</v>
       </c>
       <c r="O163" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>127</v>
@@ -9517,10 +9589,10 @@
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
       <c r="H164" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="J164" s="2" t="s">
         <v>18</v>
@@ -9538,34 +9610,36 @@
         <v>17</v>
       </c>
       <c r="O164" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="165" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="C165" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="D165" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="F165" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2" t="s">
+      <c r="G165" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="F165" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>796</v>
-      </c>
       <c r="H165" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="J165" s="2">
         <v>1</v>
@@ -9583,15 +9657,15 @@
         <v>17</v>
       </c>
       <c r="O165" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>126</v>
@@ -9603,9 +9677,11 @@
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
       <c r="H166" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I166" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J166" s="2">
         <v>1</v>
       </c>
@@ -9622,15 +9698,15 @@
         <v>17</v>
       </c>
       <c r="O166" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>126</v>
@@ -9642,9 +9718,11 @@
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
       <c r="H167" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I167" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J167" s="2">
         <v>1</v>
       </c>
@@ -9661,15 +9739,15 @@
         <v>17</v>
       </c>
       <c r="O167" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>126</v>
@@ -9681,9 +9759,11 @@
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
       <c r="H168" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I168" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J168" s="2">
         <v>1</v>
       </c>
@@ -9700,15 +9780,15 @@
         <v>17</v>
       </c>
       <c r="O168" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>126</v>
@@ -9720,9 +9800,11 @@
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
       <c r="H169" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I169" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J169" s="2">
         <v>1</v>
       </c>
@@ -9739,15 +9821,15 @@
         <v>17</v>
       </c>
       <c r="O169" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>126</v>
@@ -9759,9 +9841,11 @@
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
       <c r="H170" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I170" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J170" s="2">
         <v>1</v>
       </c>
@@ -9778,15 +9862,15 @@
         <v>17</v>
       </c>
       <c r="O170" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>126</v>
@@ -9798,9 +9882,11 @@
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
       <c r="H171" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I171" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J171" s="2">
         <v>1</v>
       </c>
@@ -9817,29 +9903,31 @@
         <v>17</v>
       </c>
       <c r="O171" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="C172" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="D172" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
       <c r="H172" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I172" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J172" s="2">
         <v>1</v>
       </c>
@@ -9856,29 +9944,31 @@
         <v>17</v>
       </c>
       <c r="O172" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>387</v>
-      </c>
       <c r="C173" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
       <c r="H173" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I173" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J173" s="2">
         <v>1</v>
       </c>
@@ -9895,29 +9985,31 @@
         <v>17</v>
       </c>
       <c r="O173" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>389</v>
-      </c>
       <c r="C174" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
       <c r="H174" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I174" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J174" s="2">
         <v>1</v>
       </c>
@@ -9934,29 +10026,31 @@
         <v>17</v>
       </c>
       <c r="O174" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="C175" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
       <c r="H175" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I175" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J175" s="2">
         <v>1</v>
       </c>
@@ -9973,30 +10067,32 @@
         <v>17</v>
       </c>
       <c r="O175" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="176" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="C176" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="D176" s="2"/>
+      <c r="D176" s="7" t="s">
+        <v>797</v>
+      </c>
       <c r="E176" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
       <c r="H176" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="J176" s="2">
         <v>1</v>
@@ -10012,27 +10108,31 @@
         <v>17</v>
       </c>
       <c r="O176" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="C177" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D177" s="2"/>
+      <c r="D177" s="2" t="s">
+        <v>798</v>
+      </c>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
       <c r="H177" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I177" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J177" s="2">
         <v>1</v>
       </c>
@@ -10049,27 +10149,31 @@
         <v>17</v>
       </c>
       <c r="O177" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>399</v>
-      </c>
       <c r="C178" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D178" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>798</v>
+      </c>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
       <c r="H178" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I178" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I178" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J178" s="2">
         <v>1</v>
       </c>
@@ -10086,27 +10190,31 @@
         <v>17</v>
       </c>
       <c r="O178" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="179" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="C179" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D179" s="2"/>
+      <c r="D179" s="7" t="s">
+        <v>428</v>
+      </c>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
       <c r="H179" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I179" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J179" s="2">
         <v>1</v>
       </c>
@@ -10123,27 +10231,31 @@
         <v>17</v>
       </c>
       <c r="O179" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="180" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="C180" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D180" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>428</v>
+      </c>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
       <c r="H180" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I180" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J180" s="2">
         <v>1</v>
       </c>
@@ -10160,27 +10272,31 @@
         <v>17</v>
       </c>
       <c r="O180" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="C181" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D181" s="2"/>
+      <c r="D181" s="7" t="s">
+        <v>799</v>
+      </c>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
       <c r="H181" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I181" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J181" s="2">
         <v>1</v>
       </c>
@@ -10197,27 +10313,31 @@
         <v>17</v>
       </c>
       <c r="O181" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>409</v>
-      </c>
       <c r="C182" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D182" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>799</v>
+      </c>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
       <c r="H182" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I182" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J182" s="2">
         <v>1</v>
       </c>
@@ -10234,27 +10354,31 @@
         <v>17</v>
       </c>
       <c r="O182" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>411</v>
-      </c>
       <c r="C183" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D183" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>799</v>
+      </c>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
       <c r="H183" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I183" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I183" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J183" s="2">
         <v>1</v>
       </c>
@@ -10271,27 +10395,31 @@
         <v>17</v>
       </c>
       <c r="O183" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="C184" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D184" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>799</v>
+      </c>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
       <c r="H184" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I184" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J184" s="2">
         <v>1</v>
       </c>
@@ -10308,27 +10436,31 @@
         <v>17</v>
       </c>
       <c r="O184" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>415</v>
-      </c>
       <c r="C185" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D185" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>435</v>
+      </c>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
       <c r="H185" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I185" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I185" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J185" s="2">
         <v>1</v>
       </c>
@@ -10345,27 +10477,31 @@
         <v>17</v>
       </c>
       <c r="O185" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>417</v>
-      </c>
       <c r="C186" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D186" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>435</v>
+      </c>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
       <c r="H186" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I186" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J186" s="2">
         <v>1</v>
       </c>
@@ -10382,27 +10518,31 @@
         <v>17</v>
       </c>
       <c r="O186" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>419</v>
-      </c>
       <c r="C187" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D187" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>435</v>
+      </c>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
       <c r="H187" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I187" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J187" s="2">
         <v>1</v>
       </c>
@@ -10419,27 +10559,31 @@
         <v>17</v>
       </c>
       <c r="O187" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>421</v>
-      </c>
       <c r="C188" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D188" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>435</v>
+      </c>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
       <c r="H188" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I188" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J188" s="2">
         <v>1</v>
       </c>
@@ -10456,27 +10600,31 @@
         <v>17</v>
       </c>
       <c r="O188" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="C189" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D189" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>435</v>
+      </c>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
       <c r="H189" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I189" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I189" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J189" s="2">
         <v>1</v>
       </c>
@@ -10493,29 +10641,29 @@
         <v>17</v>
       </c>
       <c r="O189" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="C190" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="D190" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D190" s="2" t="s">
-        <v>427</v>
-      </c>
       <c r="E190" s="2" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
       <c r="H190" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I190" s="2" t="s">
         <v>29</v>
@@ -10536,29 +10684,31 @@
         <v>17</v>
       </c>
       <c r="O190" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="191" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
       <c r="H191" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I191" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I191" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J191" s="2">
         <v>1</v>
       </c>
@@ -10575,15 +10725,15 @@
         <v>17</v>
       </c>
       <c r="O191" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>126</v>
@@ -10595,9 +10745,11 @@
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
       <c r="H192" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I192" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I192" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J192" s="2">
         <v>1</v>
       </c>
@@ -10614,15 +10766,15 @@
         <v>17</v>
       </c>
       <c r="O192" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>126</v>
@@ -10634,9 +10786,11 @@
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
       <c r="H193" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I193" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I193" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J193" s="2">
         <v>1</v>
       </c>
@@ -10653,29 +10807,31 @@
         <v>17</v>
       </c>
       <c r="O193" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="C194" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
       <c r="H194" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I194" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J194" s="2">
         <v>1</v>
       </c>
@@ -10692,29 +10848,31 @@
         <v>17</v>
       </c>
       <c r="O194" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>438</v>
-      </c>
       <c r="C195" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
       <c r="H195" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I195" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J195" s="2">
         <v>1</v>
       </c>
@@ -10731,29 +10889,31 @@
         <v>17</v>
       </c>
       <c r="O195" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>440</v>
-      </c>
       <c r="C196" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
       <c r="H196" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I196" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I196" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J196" s="2">
         <v>1</v>
       </c>
@@ -10770,29 +10930,31 @@
         <v>17</v>
       </c>
       <c r="O196" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>442</v>
-      </c>
       <c r="C197" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
       <c r="H197" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I197" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J197" s="2">
         <v>1</v>
       </c>
@@ -10809,33 +10971,33 @@
         <v>17</v>
       </c>
       <c r="O197" s="5" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="C198" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="D198" s="2">
         <v>102274</v>
       </c>
       <c r="E198" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="G198" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="F198" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>794</v>
-      </c>
       <c r="H198" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I198" s="2" t="s">
         <v>30</v>
@@ -10856,15 +11018,15 @@
         <v>17</v>
       </c>
       <c r="O198" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>126</v>
@@ -10876,9 +11038,11 @@
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
       <c r="H199" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I199" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I199" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J199" s="2">
         <v>1</v>
       </c>
@@ -10895,15 +11059,15 @@
         <v>17</v>
       </c>
       <c r="O199" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>126</v>
@@ -10915,9 +11079,11 @@
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
       <c r="H200" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I200" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J200" s="2">
         <v>1</v>
       </c>
@@ -10934,15 +11100,15 @@
         <v>17</v>
       </c>
       <c r="O200" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>452</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>126</v>
@@ -10954,9 +11120,11 @@
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
       <c r="H201" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I201" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I201" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J201" s="2">
         <v>1</v>
       </c>
@@ -10973,15 +11141,15 @@
         <v>17</v>
       </c>
       <c r="O201" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>126</v>
@@ -10993,9 +11161,11 @@
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
       <c r="H202" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I202" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I202" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J202" s="2">
         <v>1</v>
       </c>
@@ -11012,15 +11182,15 @@
         <v>17</v>
       </c>
       <c r="O202" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>126</v>
@@ -11032,9 +11202,11 @@
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
       <c r="H203" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I203" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J203" s="2">
         <v>1</v>
       </c>
@@ -11051,15 +11223,15 @@
         <v>17</v>
       </c>
       <c r="O203" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>126</v>
@@ -11071,9 +11243,11 @@
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
       <c r="H204" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I204" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I204" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J204" s="2">
         <v>1</v>
       </c>
@@ -11090,15 +11264,15 @@
         <v>17</v>
       </c>
       <c r="O204" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>126</v>
@@ -11110,9 +11284,11 @@
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
       <c r="H205" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I205" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I205" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J205" s="2">
         <v>1</v>
       </c>
@@ -11129,15 +11305,15 @@
         <v>17</v>
       </c>
       <c r="O205" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>126</v>
@@ -11149,9 +11325,11 @@
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
       <c r="H206" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I206" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J206" s="2">
         <v>1</v>
       </c>
@@ -11168,29 +11346,31 @@
         <v>17</v>
       </c>
       <c r="O206" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>464</v>
-      </c>
       <c r="C207" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
       <c r="H207" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I207" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J207" s="2">
         <v>1</v>
       </c>
@@ -11207,29 +11387,31 @@
         <v>17</v>
       </c>
       <c r="O207" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>466</v>
-      </c>
       <c r="C208" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
       <c r="H208" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I208" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J208" s="2">
         <v>1</v>
       </c>
@@ -11246,29 +11428,31 @@
         <v>17</v>
       </c>
       <c r="O208" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>468</v>
-      </c>
       <c r="C209" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
       <c r="H209" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I209" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I209" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J209" s="2">
         <v>1</v>
       </c>
@@ -11285,29 +11469,31 @@
         <v>17</v>
       </c>
       <c r="O209" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>470</v>
-      </c>
       <c r="C210" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
       <c r="H210" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I210" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J210" s="2">
         <v>1</v>
       </c>
@@ -11324,36 +11510,36 @@
         <v>17</v>
       </c>
       <c r="O210" s="5" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="211" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="C211" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="F211" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D211" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>446</v>
-      </c>
       <c r="G211" s="2" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="J211" s="2">
         <v>1</v>
@@ -11371,15 +11557,15 @@
         <v>17</v>
       </c>
       <c r="O211" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>126</v>
@@ -11391,9 +11577,11 @@
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I212" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I212" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J212" s="2">
         <v>1</v>
       </c>
@@ -11410,15 +11598,15 @@
         <v>17</v>
       </c>
       <c r="O212" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>476</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>126</v>
@@ -11430,9 +11618,11 @@
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
       <c r="H213" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I213" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I213" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J213" s="2">
         <v>1</v>
       </c>
@@ -11449,15 +11639,15 @@
         <v>17</v>
       </c>
       <c r="O213" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>126</v>
@@ -11469,9 +11659,11 @@
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
       <c r="H214" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I214" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I214" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J214" s="2">
         <v>1</v>
       </c>
@@ -11488,15 +11680,15 @@
         <v>17</v>
       </c>
       <c r="O214" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>480</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>126</v>
@@ -11508,9 +11700,11 @@
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
       <c r="H215" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I215" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I215" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J215" s="2">
         <v>1</v>
       </c>
@@ -11527,15 +11721,15 @@
         <v>17</v>
       </c>
       <c r="O215" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>482</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>126</v>
@@ -11547,9 +11741,11 @@
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
       <c r="H216" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I216" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I216" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J216" s="2">
         <v>1</v>
       </c>
@@ -11566,15 +11762,15 @@
         <v>17</v>
       </c>
       <c r="O216" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>126</v>
@@ -11586,9 +11782,11 @@
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
       <c r="H217" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I217" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I217" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J217" s="2">
         <v>1</v>
       </c>
@@ -11605,15 +11803,15 @@
         <v>17</v>
       </c>
       <c r="O217" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>486</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>126</v>
@@ -11625,9 +11823,11 @@
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
       <c r="H218" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I218" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I218" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J218" s="2">
         <v>1</v>
       </c>
@@ -11644,15 +11844,15 @@
         <v>17</v>
       </c>
       <c r="O218" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>488</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>126</v>
@@ -11664,9 +11864,11 @@
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
       <c r="H219" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I219" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I219" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J219" s="2">
         <v>1</v>
       </c>
@@ -11683,29 +11885,31 @@
         <v>17</v>
       </c>
       <c r="O219" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>490</v>
-      </c>
       <c r="C220" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
       <c r="H220" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I220" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I220" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J220" s="2">
         <v>1</v>
       </c>
@@ -11722,29 +11926,31 @@
         <v>17</v>
       </c>
       <c r="O220" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>492</v>
-      </c>
       <c r="C221" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
       <c r="H221" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I221" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I221" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J221" s="2">
         <v>1</v>
       </c>
@@ -11761,29 +11967,31 @@
         <v>17</v>
       </c>
       <c r="O221" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>494</v>
-      </c>
       <c r="C222" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
       <c r="H222" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I222" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I222" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J222" s="2">
         <v>1</v>
       </c>
@@ -11800,29 +12008,31 @@
         <v>17</v>
       </c>
       <c r="O222" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>496</v>
-      </c>
       <c r="C223" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
       <c r="H223" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I223" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I223" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J223" s="2">
         <v>1</v>
       </c>
@@ -11839,36 +12049,36 @@
         <v>17</v>
       </c>
       <c r="O223" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="224" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="C224" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="D224" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="F224" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="D224" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>500</v>
-      </c>
       <c r="G224" s="2" t="s">
-        <v>784</v>
+        <v>800</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J224" s="2">
         <v>1</v>
@@ -11886,15 +12096,15 @@
         <v>17</v>
       </c>
       <c r="O224" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>502</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>126</v>
@@ -11906,9 +12116,11 @@
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
       <c r="H225" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I225" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I225" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J225" s="2">
         <v>1</v>
       </c>
@@ -11925,15 +12137,15 @@
         <v>17</v>
       </c>
       <c r="O225" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>126</v>
@@ -11945,9 +12157,11 @@
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
       <c r="H226" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I226" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I226" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J226" s="2">
         <v>1</v>
       </c>
@@ -11964,15 +12178,15 @@
         <v>17</v>
       </c>
       <c r="O226" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>506</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>126</v>
@@ -11984,9 +12198,11 @@
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
       <c r="H227" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I227" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I227" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J227" s="2">
         <v>1</v>
       </c>
@@ -12003,15 +12219,15 @@
         <v>17</v>
       </c>
       <c r="O227" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>126</v>
@@ -12023,9 +12239,11 @@
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
       <c r="H228" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I228" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I228" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J228" s="2">
         <v>1</v>
       </c>
@@ -12042,15 +12260,15 @@
         <v>17</v>
       </c>
       <c r="O228" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>126</v>
@@ -12062,9 +12280,11 @@
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
       <c r="H229" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I229" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I229" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J229" s="2">
         <v>1</v>
       </c>
@@ -12081,15 +12301,15 @@
         <v>17</v>
       </c>
       <c r="O229" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>512</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>126</v>
@@ -12101,9 +12321,11 @@
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
       <c r="H230" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I230" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I230" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J230" s="2">
         <v>1</v>
       </c>
@@ -12120,15 +12342,15 @@
         <v>17</v>
       </c>
       <c r="O230" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>513</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>514</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>126</v>
@@ -12140,9 +12362,11 @@
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
       <c r="H231" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I231" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I231" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J231" s="2">
         <v>1</v>
       </c>
@@ -12159,15 +12383,15 @@
         <v>17</v>
       </c>
       <c r="O231" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="232" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>516</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>126</v>
@@ -12178,12 +12402,14 @@
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
       <c r="G232" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I232" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I232" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J232" s="2">
         <v>1</v>
       </c>
@@ -12200,29 +12426,31 @@
         <v>17</v>
       </c>
       <c r="O232" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>519</v>
-      </c>
       <c r="C233" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D233" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
       <c r="H233" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I233" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I233" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J233" s="2">
         <v>1</v>
       </c>
@@ -12239,15 +12467,15 @@
         <v>17</v>
       </c>
       <c r="O233" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B234" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>521</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>26</v>
@@ -12259,9 +12487,11 @@
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
       <c r="H234" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I234" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I234" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J234" s="2">
         <v>1</v>
       </c>
@@ -12278,29 +12508,31 @@
         <v>17</v>
       </c>
       <c r="O234" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B235" s="2" t="s">
-        <v>523</v>
-      </c>
       <c r="C235" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D235" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
       <c r="H235" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I235" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I235" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J235" s="2">
         <v>1</v>
       </c>
@@ -12317,29 +12549,31 @@
         <v>17</v>
       </c>
       <c r="O235" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B236" s="2" t="s">
-        <v>525</v>
-      </c>
       <c r="C236" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D236" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
       <c r="H236" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I236" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="I236" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="J236" s="2">
         <v>1</v>
       </c>
@@ -12356,31 +12590,31 @@
         <v>17</v>
       </c>
       <c r="O236" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="237" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="C237" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="D237" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="D237" s="2" t="s">
+      <c r="E237" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F237" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>530</v>
       </c>
       <c r="G237" s="2"/>
       <c r="H237" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I237" s="2" t="s">
         <v>31</v>
@@ -12401,30 +12635,30 @@
         <v>17</v>
       </c>
       <c r="O237" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="C238" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="D238" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>534</v>
       </c>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
       <c r="H238" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J238" s="2" t="s">
         <v>18</v>
@@ -12442,30 +12676,30 @@
         <v>17</v>
       </c>
       <c r="O238" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>537</v>
-      </c>
       <c r="C239" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D239" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>534</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
       <c r="G239" s="2"/>
       <c r="H239" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I239" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="J239" s="2" t="s">
         <v>18</v>
@@ -12483,30 +12717,30 @@
         <v>17</v>
       </c>
       <c r="O239" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>540</v>
-      </c>
       <c r="C240" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>534</v>
       </c>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
       <c r="G240" s="2"/>
       <c r="H240" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I240" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J240" s="2" t="s">
         <v>18</v>
@@ -12524,30 +12758,30 @@
         <v>17</v>
       </c>
       <c r="O240" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B241" s="2" t="s">
-        <v>543</v>
-      </c>
       <c r="C241" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D241" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>534</v>
       </c>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
       <c r="G241" s="2"/>
       <c r="H241" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I241" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J241" s="2" t="s">
         <v>18</v>
@@ -12565,30 +12799,30 @@
         <v>17</v>
       </c>
       <c r="O241" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="B242" s="2" t="s">
-        <v>546</v>
-      </c>
       <c r="C242" s="2" t="s">
-        <v>547</v>
+        <v>807</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>145</v>
+        <v>806</v>
       </c>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
       <c r="H242" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I242" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="J242" s="2" t="s">
         <v>18</v>
@@ -12606,18 +12840,18 @@
         <v>17</v>
       </c>
       <c r="O242" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>551</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>145</v>
@@ -12626,10 +12860,10 @@
       <c r="F243" s="2"/>
       <c r="G243" s="2"/>
       <c r="H243" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="J243" s="2">
         <v>1</v>
@@ -12647,18 +12881,18 @@
         <v>17</v>
       </c>
       <c r="O243" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>145</v>
@@ -12667,10 +12901,10 @@
       <c r="F244" s="2"/>
       <c r="G244" s="2"/>
       <c r="H244" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J244" s="2">
         <v>1</v>
@@ -12688,18 +12922,18 @@
         <v>17</v>
       </c>
       <c r="O244" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>145</v>
@@ -12708,10 +12942,10 @@
       <c r="F245" s="2"/>
       <c r="G245" s="2"/>
       <c r="H245" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J245" s="2">
         <v>1</v>
@@ -12729,18 +12963,18 @@
         <v>17</v>
       </c>
       <c r="O245" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>145</v>
@@ -12749,10 +12983,10 @@
       <c r="F246" s="2"/>
       <c r="G246" s="2"/>
       <c r="H246" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I246" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J246" s="2" t="s">
         <v>18</v>
@@ -12770,32 +13004,32 @@
         <v>17</v>
       </c>
       <c r="O246" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="D247" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>565</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
       <c r="G247" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I247" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="J247" s="2">
         <v>1</v>
@@ -12813,32 +13047,32 @@
         <v>17</v>
       </c>
       <c r="O247" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
       <c r="G248" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J248" s="2">
         <v>1</v>
@@ -12856,32 +13090,32 @@
         <v>17</v>
       </c>
       <c r="O248" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
       <c r="G249" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="J249" s="2">
         <v>1</v>
@@ -12899,30 +13133,30 @@
         <v>17</v>
       </c>
       <c r="O249" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
       <c r="G250" s="2"/>
       <c r="H250" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="J250" s="2">
         <v>1</v>
@@ -12940,30 +13174,30 @@
         <v>17</v>
       </c>
       <c r="O250" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="D251" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>582</v>
       </c>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
       <c r="G251" s="2"/>
       <c r="H251" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I251" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J251" s="2">
         <v>1</v>
@@ -12981,30 +13215,30 @@
         <v>17</v>
       </c>
       <c r="O251" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
       <c r="G252" s="2"/>
       <c r="H252" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="J252" s="2">
         <v>1</v>
@@ -13022,34 +13256,34 @@
         <v>17</v>
       </c>
       <c r="O252" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="253" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="D253" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="C253" s="2" t="s">
+      <c r="E253" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="D253" s="2" t="s">
+      <c r="F253" s="2" t="s">
         <v>590</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="F253" s="2" t="s">
-        <v>592</v>
       </c>
       <c r="G253" s="2"/>
       <c r="H253" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="J253" s="2">
         <v>1</v>
@@ -13067,28 +13301,30 @@
         <v>17</v>
       </c>
       <c r="O253" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D254" s="2"/>
+      <c r="D254" s="2" t="s">
+        <v>801</v>
+      </c>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>
       <c r="H254" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="J254" s="2">
         <v>1</v>
@@ -13106,28 +13342,30 @@
         <v>17</v>
       </c>
       <c r="O254" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D255" s="2"/>
+      <c r="D255" s="2" t="s">
+        <v>801</v>
+      </c>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
       <c r="G255" s="2"/>
       <c r="H255" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="J255" s="2">
         <v>1</v>
@@ -13145,15 +13383,15 @@
         <v>17</v>
       </c>
       <c r="O255" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>10</v>
@@ -13165,10 +13403,10 @@
       <c r="F256" s="2"/>
       <c r="G256" s="2"/>
       <c r="H256" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J256" s="2">
         <v>1</v>
@@ -13186,15 +13424,15 @@
         <v>17</v>
       </c>
       <c r="O256" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>10</v>
@@ -13206,10 +13444,10 @@
       <c r="F257" s="2"/>
       <c r="G257" s="2"/>
       <c r="H257" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J257" s="2">
         <v>1</v>
@@ -13227,15 +13465,15 @@
         <v>17</v>
       </c>
       <c r="O257" s="5" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>20</v>
@@ -13249,10 +13487,10 @@
         <v>21</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="J258" s="2">
         <v>0</v>
@@ -13268,15 +13506,15 @@
         <v>17</v>
       </c>
       <c r="O258" s="5" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>20</v>
@@ -13290,10 +13528,10 @@
         <v>21</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J259" s="2">
         <v>0</v>
@@ -13309,7 +13547,7 @@
         <v>17</v>
       </c>
       <c r="O259" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
